--- a/docs/DB schema.xlsx
+++ b/docs/DB schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moshe\Documents\projectML\p1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AA1CFD-320F-4911-8DCF-73E949F1B4E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2340E1D8-64EC-4AA9-8EE2-D7CD629B1DC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" xr2:uid="{4C4A4103-6B40-4584-8976-CB1DD5155EF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>code TEXT</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>cost INTEGER</t>
+  </si>
+  <si>
+    <t>date Text</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
@@ -565,16 +568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1187450</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -589,8 +592,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3524250" y="1219200"/>
-          <a:ext cx="1847850" cy="342900"/>
+          <a:off x="3530600" y="1219200"/>
+          <a:ext cx="2260600" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -601,7 +604,7 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
@@ -625,15 +628,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -648,7 +651,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3530600" y="1358900"/>
+          <a:off x="3536950" y="1377950"/>
           <a:ext cx="628650" cy="2127250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -743,7 +746,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -751,7 +754,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -766,8 +769,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5403850" y="1422400"/>
-          <a:ext cx="393700" cy="2197100"/>
+          <a:off x="5391150" y="1422400"/>
+          <a:ext cx="406400" cy="2222500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -860,16 +863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1187450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -883,9 +886,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3530600" y="1225550"/>
-          <a:ext cx="2247900" cy="361950"/>
+        <a:xfrm flipV="1">
+          <a:off x="3524250" y="1587500"/>
+          <a:ext cx="2254250" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1219,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD527663-9004-4DF3-B782-B60DFDBA1B5A}">
   <dimension ref="B3:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1230,7 +1233,7 @@
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
     <col min="7" max="7" width="5.6328125" customWidth="1"/>
     <col min="8" max="8" width="26.36328125" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="9" max="9" width="5.54296875" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.453125" customWidth="1"/>
     <col min="12" max="12" width="19.453125" customWidth="1"/>
@@ -1274,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -1296,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">

--- a/docs/DB schema.xlsx
+++ b/docs/DB schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moshe\Documents\projectML\p1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2340E1D8-64EC-4AA9-8EE2-D7CD629B1DC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0F685C-BAD9-48B9-9904-4BF8AE0D6D22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" xr2:uid="{4C4A4103-6B40-4584-8976-CB1DD5155EF3}"/>
   </bookViews>
@@ -451,13 +451,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:colOff>1098550</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -474,7 +474,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1689100" y="1765300"/>
+          <a:off x="1708150" y="1581150"/>
           <a:ext cx="647700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -509,8 +509,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
@@ -518,7 +518,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -532,9 +532,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3530600" y="1035050"/>
-          <a:ext cx="2774950" cy="25400"/>
+        <a:xfrm>
+          <a:off x="3505200" y="1035050"/>
+          <a:ext cx="2273300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -571,7 +571,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -591,9 +591,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3530600" y="1219200"/>
-          <a:ext cx="2260600" cy="12700"/>
+        <a:xfrm>
+          <a:off x="3530600" y="1231900"/>
+          <a:ext cx="2260600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -686,16 +686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1187450</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -710,7 +710,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3549650" y="2901950"/>
+          <a:off x="3524250" y="2870200"/>
           <a:ext cx="615950" cy="596900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -863,8 +863,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1187450</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -872,7 +872,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -886,9 +886,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3524250" y="1587500"/>
-          <a:ext cx="2254250" cy="38100"/>
+        <a:xfrm>
+          <a:off x="3536950" y="1587500"/>
+          <a:ext cx="2241550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1223,7 +1223,7 @@
   <dimension ref="B3:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
